--- a/DomaciZadaci/10 Domaci2908/Domaci zadaci 1 i 2 29 08.xlsx
+++ b/DomaciZadaci/10 Domaci2908/Domaci zadaci 1 i 2 29 08.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milos\Desktop\It bootcamp\Domaci raspust\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milos\Desktop\DomaciZadaci\10 Domaci2908\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Zadaci" sheetId="9" r:id="rId1"/>
@@ -1058,6 +1058,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1074,15 +1086,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1160,9 +1163,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1204,10 +1204,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1253,10 +1253,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1297,10 +1297,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="email">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1341,10 +1341,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="email">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1390,10 +1390,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1439,10 +1439,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1730,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,15 +1792,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
@@ -1826,15 +1826,15 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -2047,15 +2047,15 @@
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -3774,15 +3774,15 @@
       <c r="G137" s="8"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="36" t="s">
+      <c r="A138" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B138" s="37"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="38"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="42"/>
     </row>
     <row r="139" spans="1:7" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
@@ -3922,15 +3922,15 @@
       <c r="G147" s="8"/>
     </row>
     <row r="148" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="36" t="s">
+      <c r="A148" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="B148" s="37"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="38"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="41"/>
+      <c r="D148" s="41"/>
+      <c r="E148" s="41"/>
+      <c r="F148" s="41"/>
+      <c r="G148" s="42"/>
     </row>
     <row r="149" spans="1:7" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
@@ -4209,15 +4209,15 @@
       <c r="G166" s="8"/>
     </row>
     <row r="167" spans="1:7" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="39" t="s">
+      <c r="A167" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B167" s="40"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="40"/>
-      <c r="F167" s="40"/>
-      <c r="G167" s="41"/>
+      <c r="B167" s="34"/>
+      <c r="C167" s="34"/>
+      <c r="D167" s="34"/>
+      <c r="E167" s="34"/>
+      <c r="F167" s="34"/>
+      <c r="G167" s="35"/>
     </row>
     <row r="168" spans="1:7" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
@@ -4374,12 +4374,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A167:G167"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A138:G138"/>
     <mergeCell ref="A148:G148"/>
-    <mergeCell ref="A167:G167"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E26" r:id="rId1" display="mailto:vu.qatestiranje@gmail.com"/>
@@ -4409,7 +4409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -4426,44 +4426,44 @@
       <c r="G1" s="15"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
       <c r="G2" s="15"/>
       <c r="H2" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
       <c r="G3" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4533,10 +4533,10 @@
         <v>169</v>
       </c>
       <c r="G13" s="15"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
@@ -4595,8 +4595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4610,56 +4610,56 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="53"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="24"/>
       <c r="H3" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="24"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="24"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="24"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -4710,26 +4710,26 @@
       <c r="F12" s="24"/>
     </row>
     <row r="13" spans="2:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="63" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="64" t="s">
         <v>182</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F15" s="24"/>
@@ -4788,7 +4788,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -4808,57 +4808,57 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="53"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="24"/>
       <c r="H3" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5055,15 +5055,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -5275,15 +5275,15 @@
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -7002,15 +7002,15 @@
       <c r="G136" s="8"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="36" t="s">
+      <c r="A137" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B137" s="37"/>
-      <c r="C137" s="37"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="38"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="41"/>
+      <c r="G137" s="42"/>
     </row>
     <row r="138" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
@@ -7150,15 +7150,15 @@
       <c r="G146" s="8"/>
     </row>
     <row r="147" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="36" t="s">
+      <c r="A147" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="B147" s="37"/>
-      <c r="C147" s="37"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="38"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="42"/>
     </row>
     <row r="148" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
@@ -7437,15 +7437,15 @@
       <c r="G165" s="8"/>
     </row>
     <row r="166" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="39" t="s">
+      <c r="A166" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B166" s="40"/>
-      <c r="C166" s="40"/>
-      <c r="D166" s="40"/>
-      <c r="E166" s="40"/>
-      <c r="F166" s="40"/>
-      <c r="G166" s="41"/>
+      <c r="B166" s="34"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="34"/>
+      <c r="E166" s="34"/>
+      <c r="F166" s="34"/>
+      <c r="G166" s="35"/>
     </row>
     <row r="167" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
